--- a/Ada.Web/upload/webcast.xlsx
+++ b/Ada.Web/upload/webcast.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="111">
   <si>
     <t>媒体名称</t>
   </si>
@@ -156,9 +156,6 @@
     <t>https://live.kuaishou.com/profile/3xgn8uc32c5yc2u</t>
   </si>
   <si>
-    <t>我是琳姐呀</t>
-  </si>
-  <si>
     <t>https://live.kuaishou.com/profile/3xcrvsvf3vwrsy6</t>
   </si>
   <si>
@@ -222,16 +219,145 @@
     <t>舞蹈</t>
   </si>
   <si>
-    <t>无名舞团</t>
-  </si>
-  <si>
-    <t>https://live.kuaishou.com/profile/3xrsrdm2jhw5c46</t>
-  </si>
-  <si>
     <t>山东青岛</t>
   </si>
   <si>
     <t>X1801180851430024</t>
+  </si>
+  <si>
+    <t>路边小郎君</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/Xiao_Lang_Jun</t>
+  </si>
+  <si>
+    <t>时光档案馆</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/3xh7bztahszsxxe</t>
+  </si>
+  <si>
+    <t>钢铁直女一枚</t>
+  </si>
+  <si>
+    <t>职场心探姜小辣</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/3xr4mqd3dp29vr9</t>
+  </si>
+  <si>
+    <t>TTGirls舞团</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/3x8qwrsp82a57d2</t>
+  </si>
+  <si>
+    <t>X1903211154103759</t>
+  </si>
+  <si>
+    <t>拜托了查查</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/btlcc666</t>
+  </si>
+  <si>
+    <t>美妆，生活，穿撘，美食</t>
+  </si>
+  <si>
+    <t>神奇宛宛</t>
+  </si>
+  <si>
+    <t>http://www.gifshow.com/s/9uoEvRhd</t>
+  </si>
+  <si>
+    <t>麻花可可</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/3xz69zxxpindm2g</t>
+  </si>
+  <si>
+    <t>爱摇摆的豆浆</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/3xw35t9xj67xk8g</t>
+  </si>
+  <si>
+    <t>陈小绿</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/3xcitcmzzkdhbgs</t>
+  </si>
+  <si>
+    <t>董咚咚会闪光✨</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/3xdvbgypspyn5q6</t>
+  </si>
+  <si>
+    <t>王哈哈HaHa</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/3xm5fpm58y43kqi</t>
+  </si>
+  <si>
+    <t>七妮小姐姐</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/3xa536v3dtfgs8u</t>
+  </si>
+  <si>
+    <t>（因账户调整，6月份暂不接单）</t>
+  </si>
+  <si>
+    <t>范范范留艺</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/3xakamanuk4p792</t>
+  </si>
+  <si>
+    <t>cherry桃桃</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/3xzcnsnpxpdap3i</t>
+  </si>
+  <si>
+    <t>泡椒一米六</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/3xxugm3imx8j8da</t>
+  </si>
+  <si>
+    <t>橙子喵mini</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/3xw3yg4ajzrtvna</t>
+  </si>
+  <si>
+    <t>陈冷冷Lam</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/3xm3m3yzsief2js</t>
+  </si>
+  <si>
+    <t>长沙吃货郭子墨</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/zimoG1997</t>
+  </si>
+  <si>
+    <t>美少女哆啦</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/3x8ex26nkruc6rq</t>
+  </si>
+  <si>
+    <t>yoki不太乖</t>
+  </si>
+  <si>
+    <t>https://live.kuaishou.com/profile/3xq9exztv5r9fm6</t>
+  </si>
+  <si>
+    <t>广东广州</t>
   </si>
 </sst>
 </file>
@@ -597,11 +723,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -710,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -718,19 +844,19 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -745,7 +871,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>6000</v>
+        <v>30000</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>28</v>
@@ -754,7 +883,7 @@
         <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,10 +891,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>27</v>
@@ -774,7 +903,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="1">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -789,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>28</v>
@@ -801,7 +930,7 @@
         <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -809,10 +938,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
@@ -821,7 +950,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -836,7 +965,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>8000</v>
+        <v>6000</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>28</v>
@@ -845,7 +977,7 @@
         <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -853,19 +985,19 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -880,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>28</v>
@@ -892,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -900,10 +1032,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -912,7 +1044,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -927,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="P7" t="s">
         <v>24</v>
       </c>
       <c r="Q7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -947,10 +1079,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
@@ -959,7 +1091,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -974,10 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>2500</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>67</v>
+        <v>6000</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>28</v>
@@ -986,7 +1115,7 @@
         <v>24</v>
       </c>
       <c r="Q8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -994,10 +1123,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -1006,7 +1135,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="1">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1021,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>28</v>
@@ -1033,7 +1162,7 @@
         <v>24</v>
       </c>
       <c r="Q9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1041,19 +1170,19 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="1">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1068,10 +1197,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>2000</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>67</v>
+        <v>12000</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>28</v>
@@ -1080,7 +1206,7 @@
         <v>24</v>
       </c>
       <c r="Q10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1088,10 +1214,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
@@ -1100,7 +1226,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="1">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1115,7 +1241,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>3000</v>
+        <v>12000</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>28</v>
@@ -1124,7 +1253,7 @@
         <v>24</v>
       </c>
       <c r="Q11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1132,10 +1261,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -1144,7 +1273,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="1">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1159,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>28</v>
@@ -1171,7 +1300,7 @@
         <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1179,19 +1308,19 @@
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1206,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="P13" t="s">
         <v>24</v>
       </c>
       <c r="Q13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1226,20 +1355,20 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1">
         <v>14</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1">
-        <v>21</v>
-      </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
@@ -1253,16 +1382,19 @@
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>3000</v>
+        <v>3600</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="P14" t="s">
         <v>24</v>
       </c>
       <c r="Q14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1270,10 +1402,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>14</v>
@@ -1282,7 +1414,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1297,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="P15" t="s">
         <v>24</v>
       </c>
       <c r="Q15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1317,10 +1449,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
@@ -1329,7 +1461,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="1">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1344,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="P16" t="s">
         <v>24</v>
       </c>
       <c r="Q16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1364,19 +1496,19 @@
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1391,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P17" t="s">
         <v>24</v>
       </c>
       <c r="Q17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1411,10 +1543,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
@@ -1423,7 +1555,7 @@
         <v>21</v>
       </c>
       <c r="F18" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1438,19 +1570,16 @@
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>3500</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>67</v>
+        <v>4000</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="P18" t="s">
         <v>24</v>
       </c>
       <c r="Q18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1458,19 +1587,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1485,16 +1614,19 @@
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>2000</v>
+        <v>2500</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P19" t="s">
         <v>24</v>
       </c>
       <c r="Q19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1502,10 +1634,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>27</v>
@@ -1514,7 +1646,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="1">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1529,16 +1661,870 @@
         <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>1500</v>
+        <v>4000</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="O20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2500</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P20" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>68</v>
+      <c r="O21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1">
+        <v>20</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2500</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1">
+        <v>46.6</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>10980</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1">
+        <v>63.7</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>13450</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="1">
+        <v>63.8</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>15000</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>10800</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="1">
+        <v>66.7</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>16675</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="1">
+        <v>67.8</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>12600</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="1">
+        <v>150</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>26000</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="1">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="1">
+        <v>36.6</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="1">
+        <v>48.9</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>9000</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="1">
+        <v>42.6</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>9850</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="1">
+        <v>49.3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>10800</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>3600</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P36" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="1">
+        <v>94.2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>12000</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="1">
+        <v>32</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>6000</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
